--- a/德福词汇/变化规则.xlsx
+++ b/德福词汇/变化规则.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11017"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C9435F-B721-46A4-9E2A-2EBC102157CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1692" yWindow="4128" windowWidth="6840" windowHeight="8520" activeTab="4" xr2:uid="{44A6C615-4FC6-9145-8BBF-6AD7B7D325F8}"/>
+    <workbookView xWindow="1692" yWindow="4128" windowWidth="6840" windowHeight="8520" xr2:uid="{44A6C615-4FC6-9145-8BBF-6AD7B7D325F8}"/>
   </bookViews>
   <sheets>
     <sheet name="e-a" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="ü-o" sheetId="11" r:id="rId10"/>
     <sheet name="其他" sheetId="7" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2188,10 +2190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>vergessen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>schwamm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2624,14 +2622,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>stehen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vergessen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>wanden</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2667,10 +2657,6 @@
   </si>
   <si>
     <t>洗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>做</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2965,6 +2951,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2976,9 +2965,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3296,26 +3282,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2660D0-236E-FC4B-AFFF-407BFE279468}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.91015625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.65625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.57421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" ht="30.6">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" s="20" customFormat="1" ht="30.75">
+      <c r="A1" s="20" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3335,7 +3321,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18">
+    <row r="3" spans="1:8" ht="18.75">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3355,7 +3341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18">
+    <row r="4" spans="1:8" ht="18.75">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3375,7 +3361,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18">
+    <row r="5" spans="1:8" ht="18.75">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -3398,7 +3384,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18">
+    <row r="6" spans="1:8" ht="18.75">
       <c r="A6" s="4" t="s">
         <v>180</v>
       </c>
@@ -3418,7 +3404,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8" ht="18.75">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -3433,10 +3419,10 @@
         <v>185</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -3448,13 +3434,13 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -3471,10 +3457,10 @@
         <v>186</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75">
       <c r="A10" s="4" t="s">
         <v>115</v>
       </c>
@@ -3491,7 +3477,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18">
+    <row r="11" spans="1:8" ht="18.75">
       <c r="A11" s="5" t="s">
         <v>117</v>
       </c>
@@ -3506,7 +3492,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18">
+    <row r="12" spans="1:8" ht="18.75">
       <c r="A12" s="8" t="s">
         <v>126</v>
       </c>
@@ -3523,7 +3509,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18">
+    <row r="13" spans="1:8" ht="18.75">
       <c r="A13" s="8" t="s">
         <v>133</v>
       </c>
@@ -3540,7 +3526,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18">
+    <row r="14" spans="1:8" ht="18.75">
       <c r="A14" s="4" t="s">
         <v>134</v>
       </c>
@@ -3557,7 +3543,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18">
+    <row r="15" spans="1:8" ht="18.75">
       <c r="A15" s="5" t="s">
         <v>135</v>
       </c>
@@ -3572,7 +3558,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18">
+    <row r="16" spans="1:8" ht="18.75">
       <c r="A16" s="5" t="s">
         <v>141</v>
       </c>
@@ -3587,7 +3573,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18">
+    <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="4" t="s">
         <v>172</v>
       </c>
@@ -3604,7 +3590,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="12" customFormat="1" ht="18">
+    <row r="18" spans="1:5" s="12" customFormat="1" ht="18.75">
       <c r="A18" s="13" t="s">
         <v>323</v>
       </c>
@@ -3621,7 +3607,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="12" customFormat="1" ht="18">
+    <row r="19" spans="1:5" s="12" customFormat="1" ht="18.75">
       <c r="A19" s="12" t="s">
         <v>335</v>
       </c>
@@ -3638,7 +3624,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="12" customFormat="1" ht="18">
+    <row r="20" spans="1:5" s="12" customFormat="1" ht="18.75">
       <c r="A20" s="12" t="s">
         <v>337</v>
       </c>
@@ -3651,11 +3637,11 @@
       <c r="D20" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="19" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="12" customFormat="1" ht="18">
+    <row r="21" spans="1:5" s="12" customFormat="1" ht="18.75">
       <c r="A21" s="13" t="s">
         <v>338</v>
       </c>
@@ -3670,7 +3656,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="12" customFormat="1" ht="18">
+    <row r="22" spans="1:5" s="12" customFormat="1" ht="18.75">
       <c r="A22" s="12" t="s">
         <v>339</v>
       </c>
@@ -3687,7 +3673,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="12" customFormat="1" ht="18">
+    <row r="23" spans="1:5" s="12" customFormat="1" ht="18.75">
       <c r="A23" s="12" t="s">
         <v>341</v>
       </c>
@@ -3704,7 +3690,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="12" customFormat="1" ht="18">
+    <row r="24" spans="1:5" s="12" customFormat="1" ht="18.75">
       <c r="A24" s="12" t="s">
         <v>352</v>
       </c>
@@ -3721,7 +3707,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="12" customFormat="1" ht="18">
+    <row r="25" spans="1:5" s="12" customFormat="1" ht="18.75">
       <c r="A25" s="12" t="s">
         <v>354</v>
       </c>
@@ -3738,7 +3724,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="12" customFormat="1" ht="18">
+    <row r="26" spans="1:5" s="12" customFormat="1" ht="18.75">
       <c r="A26" s="12" t="s">
         <v>357</v>
       </c>
@@ -3751,11 +3737,11 @@
       <c r="D26" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="19" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="12" customFormat="1" ht="18">
+    <row r="27" spans="1:5" s="12" customFormat="1" ht="18.75">
       <c r="A27" s="12" t="s">
         <v>358</v>
       </c>
@@ -3766,65 +3752,65 @@
         <v>381</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="12" customFormat="1" ht="18">
+    <row r="28" spans="1:5" s="12" customFormat="1" ht="18.75">
       <c r="A28" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="E28" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="12" customFormat="1" ht="18.75">
+      <c r="A29" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="B29" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="12" customFormat="1" ht="18">
-      <c r="A29" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="E29" s="14" t="s">
+    <row r="30" spans="1:5" s="12" customFormat="1" ht="18.75">
+      <c r="A30" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="12" customFormat="1" ht="18">
-      <c r="A30" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="12" customFormat="1" ht="18"/>
-    <row r="32" spans="1:5" s="12" customFormat="1" ht="18"/>
-    <row r="33" s="12" customFormat="1" ht="18"/>
-    <row r="34" s="12" customFormat="1" ht="18"/>
-    <row r="35" s="12" customFormat="1" ht="18"/>
+    <row r="31" spans="1:5" s="12" customFormat="1" ht="18.75"/>
+    <row r="32" spans="1:5" s="12" customFormat="1" ht="18.75"/>
+    <row r="33" s="12" customFormat="1" ht="18.75"/>
+    <row r="34" s="12" customFormat="1" ht="18.75"/>
+    <row r="35" s="12" customFormat="1" ht="18.75"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
@@ -3843,16 +3829,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.81640625" style="4"/>
-    <col min="4" max="4" width="12.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.81640625" style="4"/>
+    <col min="1" max="1" width="12.3359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.79296875" style="4"/>
+    <col min="4" max="4" width="12.57421875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.79296875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1" ht="30.6">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" s="21" customFormat="1" ht="30.75">
+      <c r="A1" s="21" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3919,13 +3905,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="4"/>
-    <col min="3" max="3" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.81640625" style="4"/>
+    <col min="1" max="1" width="14.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.79296875" style="4"/>
+    <col min="3" max="3" width="11.38671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.79296875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4035,7 +4021,7 @@
         <v>330</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4043,16 +4029,16 @@
         <v>342</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>443</v>
-      </c>
       <c r="E8" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4060,50 +4046,50 @@
         <v>356</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="14" t="s">
         <v>446</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>470</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>481</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -4120,18 +4106,18 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="4"/>
-    <col min="4" max="4" width="17.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.81640625" style="4"/>
+    <col min="1" max="1" width="14.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.57421875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.79296875" style="4"/>
+    <col min="4" max="4" width="17.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.58984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.79296875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1" ht="30.6">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" s="21" customFormat="1" ht="30.75">
+      <c r="A1" s="21" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4200,22 +4186,22 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.81640625" style="7"/>
-    <col min="4" max="4" width="14.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.81640625" style="7"/>
+    <col min="1" max="1" width="12.57421875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.79296875" style="7"/>
+    <col min="4" max="4" width="14.234375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.98046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.4375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.79296875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="20" customFormat="1" ht="30.6">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" s="21" customFormat="1" ht="30.75">
+      <c r="A1" s="21" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18">
+    <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4232,7 +4218,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18">
+    <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -4247,7 +4233,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18">
+    <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -4259,10 +4245,10 @@
         <v>31</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -4274,13 +4260,13 @@
         <v>34</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -4292,10 +4278,10 @@
         <v>37</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
@@ -4307,10 +4293,10 @@
         <v>40</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
@@ -4322,10 +4308,10 @@
         <v>43</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
@@ -4337,10 +4323,10 @@
         <v>85</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="4" t="s">
         <v>143</v>
       </c>
@@ -4350,121 +4336,121 @@
       <c r="D10" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18">
+    <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="4" t="s">
         <v>321</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18">
+    </row>
+    <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="4" t="s">
         <v>322</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18">
+    </row>
+    <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18">
+    </row>
+    <row r="14" spans="1:6" ht="18.75">
       <c r="A14" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18">
+    </row>
+    <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="5" t="s">
         <v>334</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18">
+    </row>
+    <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>417</v>
-      </c>
       <c r="E16" s="16" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="4" t="s">
         <v>355</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>419</v>
-      </c>
       <c r="E17" s="16" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75">
       <c r="A18" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="E18" s="16" t="s">
         <v>490</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -4484,21 +4470,21 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.81640625" style="7"/>
-    <col min="4" max="4" width="17.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.81640625" style="7"/>
+    <col min="1" max="1" width="13.640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.79296875" style="7"/>
+    <col min="4" max="4" width="17.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.79296875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1" ht="30.6">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" s="21" customFormat="1" ht="30.75">
+      <c r="A1" s="21" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18">
+    <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4515,7 +4501,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18">
+    <row r="3" spans="1:5" ht="18.75">
       <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
@@ -4530,7 +4516,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18">
+    <row r="4" spans="1:5" ht="18.75">
       <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
@@ -4545,7 +4531,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18">
+    <row r="5" spans="1:5" ht="18.75">
       <c r="A5" s="4" t="s">
         <v>62</v>
       </c>
@@ -4560,7 +4546,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18">
+    <row r="6" spans="1:5" ht="18.75">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -4575,7 +4561,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18">
+    <row r="7" spans="1:5" ht="18.75">
       <c r="A7" s="4" t="s">
         <v>68</v>
       </c>
@@ -4590,7 +4576,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18">
+    <row r="8" spans="1:5" ht="18.75">
       <c r="A8" s="4" t="s">
         <v>71</v>
       </c>
@@ -4605,7 +4591,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18">
+    <row r="9" spans="1:5" ht="18.75">
       <c r="A9" s="4" t="s">
         <v>74</v>
       </c>
@@ -4620,7 +4606,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18">
+    <row r="10" spans="1:5" ht="18.75">
       <c r="A10" s="4" t="s">
         <v>77</v>
       </c>
@@ -4635,7 +4621,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18">
+    <row r="11" spans="1:5" ht="18.75">
       <c r="A11" s="4" t="s">
         <v>142</v>
       </c>
@@ -4650,7 +4636,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18">
+    <row r="12" spans="1:5" ht="18.75">
       <c r="A12" s="4" t="s">
         <v>147</v>
       </c>
@@ -4664,7 +4650,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18">
+    <row r="13" spans="1:5" ht="18.75">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -4678,46 +4664,46 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18">
+    <row r="14" spans="1:5" ht="18.75">
       <c r="A14" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18">
+    </row>
+    <row r="15" spans="1:5" ht="18.75">
       <c r="A15" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>477</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75">
       <c r="A16" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>487</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -4733,25 +4719,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A52ACB7-EBA3-AE4E-AA30-9A09C5059D68}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.81640625" style="7"/>
-    <col min="4" max="4" width="15.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.81640625" style="7"/>
+    <col min="1" max="1" width="12.57421875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.79296875" style="7"/>
+    <col min="4" max="4" width="15.65625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.98046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.79296875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1" ht="30.6">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" s="23" customFormat="1" ht="30.75">
+      <c r="A1" s="22" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18">
+    <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4768,7 +4754,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18">
+    <row r="3" spans="1:5" ht="18.75">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
@@ -4785,7 +4771,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="18">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="18.75">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
@@ -4802,7 +4788,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18">
+    <row r="5" spans="1:5" ht="18.75">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -4816,10 +4802,10 @@
         <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75">
       <c r="A6" s="4" t="s">
         <v>103</v>
       </c>
@@ -4836,7 +4822,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18">
+    <row r="7" spans="1:5" ht="18.75">
       <c r="A7" s="4" t="s">
         <v>112</v>
       </c>
@@ -4853,7 +4839,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18">
+    <row r="8" spans="1:5" ht="18.75">
       <c r="A8" s="4" t="s">
         <v>113</v>
       </c>
@@ -4867,7 +4853,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18">
+    <row r="9" spans="1:5" ht="18.75">
       <c r="A9" s="4" t="s">
         <v>122</v>
       </c>
@@ -4884,7 +4870,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18">
+    <row r="10" spans="1:5" ht="18.75">
       <c r="A10" s="4" t="s">
         <v>136</v>
       </c>
@@ -4901,7 +4887,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18">
+    <row r="11" spans="1:5" ht="18.75">
       <c r="A11" s="4" t="s">
         <v>148</v>
       </c>
@@ -4918,7 +4904,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18">
+    <row r="12" spans="1:5" ht="18.75">
       <c r="A12" s="4" t="s">
         <v>123</v>
       </c>
@@ -4952,17 +4938,17 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.81640625" style="4"/>
-    <col min="4" max="4" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.81640625" style="4"/>
+    <col min="1" max="1" width="12.57421875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.79296875" style="4"/>
+    <col min="4" max="4" width="15.65625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.79296875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1" ht="30.6">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" s="21" customFormat="1" ht="30.75">
+      <c r="A1" s="21" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5073,50 +5059,50 @@
         <v>351</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="12" t="s">
         <v>427</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>452</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>456</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -5136,19 +5122,19 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.91015625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1" ht="30.6">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" s="23" customFormat="1" ht="30.75">
+      <c r="A1" s="23" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18">
+    <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5165,7 +5151,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18">
+    <row r="3" spans="1:5" ht="18.75">
       <c r="A3" s="4" t="s">
         <v>86</v>
       </c>
@@ -5180,7 +5166,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18">
+    <row r="4" spans="1:5" ht="18.75">
       <c r="A4" s="4" t="s">
         <v>89</v>
       </c>
@@ -5195,7 +5181,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18">
+    <row r="5" spans="1:5" ht="18.75">
       <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
@@ -5210,7 +5196,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18">
+    <row r="6" spans="1:5" ht="18.75">
       <c r="A6" s="4" t="s">
         <v>125</v>
       </c>
@@ -5224,7 +5210,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18">
+    <row r="7" spans="1:5" ht="18.75">
       <c r="A7" s="4" t="s">
         <v>132</v>
       </c>
@@ -5238,7 +5224,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18">
+    <row r="8" spans="1:5" ht="18.75">
       <c r="A8" s="4" t="s">
         <v>137</v>
       </c>
@@ -5252,7 +5238,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18">
+    <row r="9" spans="1:5" ht="18.75">
       <c r="A9" s="4" t="s">
         <v>146</v>
       </c>
@@ -5266,7 +5252,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18">
+    <row r="10" spans="1:5" ht="18.75">
       <c r="A10" s="4" t="s">
         <v>153</v>
       </c>
@@ -5280,7 +5266,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18">
+    <row r="11" spans="1:5" ht="18.75">
       <c r="A11" s="4" t="s">
         <v>154</v>
       </c>
@@ -5294,35 +5280,35 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18">
+    <row r="12" spans="1:5" ht="18.75">
       <c r="A12" s="4" t="s">
         <v>320</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18">
+    </row>
+    <row r="13" spans="1:5" ht="18.75">
       <c r="A13" s="4" t="s">
         <v>340</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="11" customFormat="1" ht="18">
+    </row>
+    <row r="14" spans="1:5" s="11" customFormat="1" ht="18.75">
       <c r="A14" s="12" t="s">
         <v>343</v>
       </c>
@@ -5333,7 +5319,7 @@
         <v>345</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="11" customFormat="1">
@@ -5341,41 +5327,41 @@
         <v>353</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>437</v>
-      </c>
       <c r="E15" s="16" t="s">
-        <v>502</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="11" customFormat="1">
       <c r="A16" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>459</v>
-      </c>
       <c r="E16" s="16" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="11" customFormat="1">
       <c r="A17" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>484</v>
-      </c>
       <c r="E17" s="16" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="11" customFormat="1"/>
@@ -5457,15 +5443,15 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="3" width="10.81640625" style="4"/>
-    <col min="4" max="4" width="12.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.81640625" style="4"/>
+    <col min="1" max="3" width="10.79296875" style="4"/>
+    <col min="4" max="4" width="12.57421875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.79296875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1" ht="30.6">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" s="23" customFormat="1" ht="30.75">
+      <c r="A1" s="23" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5531,17 +5517,17 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.81640625" style="4"/>
-    <col min="4" max="4" width="17.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.81640625" style="4"/>
+    <col min="1" max="1" width="14.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.79296875" style="4"/>
+    <col min="4" max="4" width="17.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.79296875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1" ht="30.6">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" s="21" customFormat="1" ht="30.75">
+      <c r="A1" s="21" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5601,7 +5587,7 @@
         <v>348</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5615,7 +5601,7 @@
         <v>350</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
